--- a/medicine/Handicap/Katarina_Roxon/Katarina_Roxon.xlsx
+++ b/medicine/Handicap/Katarina_Roxon/Katarina_Roxon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Katarina Roxon, née le 5 avril 1993 à Stephenville (Terre-Neuve-et-Labrador, Canada)[1], est une nageuse paralympique canadienne, championne paralympique du 100 m dos SB8 en 2016.
+Katarina Roxon, née le 5 avril 1993 à Stephenville (Terre-Neuve-et-Labrador, Canada), est une nageuse paralympique canadienne, championne paralympique du 100 m dos SB8 en 2016.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née avec une maladie des brides amniotiques, elle est née sans avant-bras gauche[2]. Ses parents l'inscrivent à la natation car il considère qu'il est important pour elle d'apprendre à nager[3]. Les parents de Katarina Roxon, — originaire de Vellore, une ville située dans l'État du Tamil Nadu[4] — ont immigré depuis l'Inde jusqu'au Canada en 1990[5].
-Pendant son enfance, elle est entraînée par son propre père[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née avec une maladie des brides amniotiques, elle est née sans avant-bras gauche. Ses parents l'inscrivent à la natation car il considère qu'il est important pour elle d'apprendre à nager. Les parents de Katarina Roxon, — originaire de Vellore, une ville située dans l'État du Tamil Nadu — ont immigré depuis l'Inde jusqu'au Canada en 1990.
+Pendant son enfance, elle est entraînée par son propre père.
 </t>
         </is>
       </c>
@@ -544,13 +558,15 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2008, Katarina Roxon est la plus jeune athlète sélectionnée pour les Jeux paralympiques de Pékin à l'âge de 15 ans[6].
-Lors des Jeux parapanaméricains de 2015 à Toronto, elle remporte la médaille de bronze du 100 m dos S9 en 1 min 20 s 59[7]. Elle remporte également l'or sur le 100 m brasse SB8 ainsi que l'argent sur le 200 m 4 nage S9, le 50 m nage libre S9 et le 400 m nage libre S9[7].
-Le 14 septembre 2016, pour ses troisièmes Jeux paralympiques, elle remporte sa première médaille d'or sur le 100 m brasse SB8 en 1 min 19 s 44[8]. Le matin même, elle avait déjà amélioré son record personnel avec un temps de 1 min 21 s 27 lors des séries[8].
-Elle remporte la médaille d'argent du 100 brasse SB8 ainsi que celle de bronze du 4 x 100 m nage libre 34 points — avec ses compatriotes Aurélie Rivard, Tess Routliffe et Abi Tripp — lors des Jeux parapanaméricains de 2018 à Mexico[9]. La même année, elle remporte l'or sur le 100 m brasse SB8 en 1 min 25 s 86 aux Championnats pan-pacifiques handisport à Cairns et termine 16e sur le 100 m nage libre remporté par sa compatriote Aurélie Rivard[10].
-Aux Championnats du monde de natation handisport 2019, Katarina Roxon remporte deux médaille : l'argent sur 100 m brasse SB8 — avec un nouveau record d'Amérique et du Canada en 1 min 21 s 96 — et le bronze sur le 4 x 100 m nage libre[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2008, Katarina Roxon est la plus jeune athlète sélectionnée pour les Jeux paralympiques de Pékin à l'âge de 15 ans.
+Lors des Jeux parapanaméricains de 2015 à Toronto, elle remporte la médaille de bronze du 100 m dos S9 en 1 min 20 s 59. Elle remporte également l'or sur le 100 m brasse SB8 ainsi que l'argent sur le 200 m 4 nage S9, le 50 m nage libre S9 et le 400 m nage libre S9.
+Le 14 septembre 2016, pour ses troisièmes Jeux paralympiques, elle remporte sa première médaille d'or sur le 100 m brasse SB8 en 1 min 19 s 44. Le matin même, elle avait déjà amélioré son record personnel avec un temps de 1 min 21 s 27 lors des séries.
+Elle remporte la médaille d'argent du 100 brasse SB8 ainsi que celle de bronze du 4 x 100 m nage libre 34 points — avec ses compatriotes Aurélie Rivard, Tess Routliffe et Abi Tripp — lors des Jeux parapanaméricains de 2018 à Mexico. La même année, elle remporte l'or sur le 100 m brasse SB8 en 1 min 25 s 86 aux Championnats pan-pacifiques handisport à Cairns et termine 16e sur le 100 m nage libre remporté par sa compatriote Aurélie Rivard.
+Aux Championnats du monde de natation handisport 2019, Katarina Roxon remporte deux médaille : l'argent sur 100 m brasse SB8 — avec un nouveau record d'Amérique et du Canada en 1 min 21 s 96 — et le bronze sur le 4 x 100 m nage libre.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Katarina Roxon a été membre du Conseil provincial pour les personnes avec un handicap de Terre-Neuve-et-Labrador[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katarina Roxon a été membre du Conseil provincial pour les personnes avec un handicap de Terre-Neuve-et-Labrador.
 </t>
         </is>
       </c>
@@ -611,6 +629,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,11 +656,13 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2018 : Ordre de Terre-Neuve-et-Labrador (en)[12]
-Médaille du jubilé de diamant d'Élisabeth II[5]
-Depuis 2016, la Trans-Canada Highway Route 490 s'appelle la Katarina Roxon Way[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2018 : Ordre de Terre-Neuve-et-Labrador (en)
+Médaille du jubilé de diamant d'Élisabeth II
+Depuis 2016, la Trans-Canada Highway Route 490 s'appelle la Katarina Roxon Way.
 </t>
         </is>
       </c>
